--- a/DccBlocks/ABC/AbcStop/doc/AbcStop-bom.xlsx
+++ b/DccBlocks/ABC/AbcStop/doc/AbcStop-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>Row</t>
   </si>
@@ -56,13 +56,61 @@
     <t>1</t>
   </si>
   <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_4x5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D_SOD-323</t>
+  </si>
+  <si>
+    <t>https://assets.nexperia.com/documents/data-sheet/1N4148_1N4448.pdf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1=K 2=A</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Diode</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5</t>
+    <t>D1 D2 D3 D4 D5 D8</t>
   </si>
   <si>
     <t>ES1G+</t>
@@ -71,43 +119,28 @@
     <t>D_SMA</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>J3 J4</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>1=K 2=A</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>43650-0200</t>
-  </si>
-  <si>
-    <t>MOLEX_436500200</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>J1</t>
+    <t>J1 J2</t>
   </si>
   <si>
     <t>SCREW</t>
@@ -116,6 +149,81 @@
     <t>TerminalBlock_Phoenix_PT-1,5-2-3.5-H_1x02_P3.50mm_Horizontal</t>
   </si>
   <si>
+    <t>N-MOSFET transistor, gate/drain/source</t>
+  </si>
+  <si>
+    <t>Q_NMOS_GDS</t>
+  </si>
+  <si>
+    <t>Q1 Q3</t>
+  </si>
+  <si>
+    <t>PSMN022</t>
+  </si>
+  <si>
+    <t>sot404</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>P-MOSFET transistor, gate/source/drain</t>
+  </si>
+  <si>
+    <t>Q_PMOS_GSD</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1 R3</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R_1206_3216Metric_Pad1.30x1.75mm_HandSolder</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>R2 R4</t>
+  </si>
+  <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DC Optocoupler, Vce 70V, CTR 50-600% @ 5mA, Viso 5000Vrms, DIP4</t>
+  </si>
+  <si>
+    <t>VO615A</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SMDIP-4_W9.53mm</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/81753/vo615a.pdf</t>
+  </si>
+  <si>
     <t>Bill of Materials</t>
   </si>
   <si>
@@ -134,7 +242,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.0.2</t>
   </si>
   <si>
     <t>Date:</t>
@@ -155,7 +263,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>7 (5 SMD/ 2 THT)</t>
+    <t>20 (16 SMD/ 4 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -673,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -684,20 +792,20 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -710,55 +818,55 @@
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F2" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -766,16 +874,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -833,89 +941,334 @@
         <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
+      <c r="J9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>27</v>
+      <c r="J15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -941,22 +1294,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/DccBlocks/ABC/AbcStop/doc/AbcStop-bom.xlsx
+++ b/DccBlocks/ABC/AbcStop/doc/AbcStop-bom.xlsx
@@ -254,7 +254,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.2.1-36-g582732918d-dirty-deb11</t>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -793,7 +793,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
